--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="H2">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="I2">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="J2">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08138266666666667</v>
+        <v>0.09278333333333333</v>
       </c>
       <c r="N2">
-        <v>0.244148</v>
+        <v>0.27835</v>
       </c>
       <c r="O2">
-        <v>0.03740640279066461</v>
+        <v>0.07826677681470105</v>
       </c>
       <c r="P2">
-        <v>0.03740640279066461</v>
+        <v>0.07826677681470104</v>
       </c>
       <c r="Q2">
-        <v>0.2984845480328889</v>
+        <v>0.4833959708</v>
       </c>
       <c r="R2">
-        <v>2.686360932296</v>
+        <v>4.3505637372</v>
       </c>
       <c r="S2">
-        <v>0.005327184526526128</v>
+        <v>0.01371178103874585</v>
       </c>
       <c r="T2">
-        <v>0.005327184526526126</v>
+        <v>0.01371178103874584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="H3">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="I3">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="J3">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.279833</v>
+        <v>1.092692</v>
       </c>
       <c r="N3">
-        <v>0.839499</v>
+        <v>3.278076</v>
       </c>
       <c r="O3">
-        <v>0.1286213187753336</v>
+        <v>0.921733223185299</v>
       </c>
       <c r="P3">
-        <v>0.1286213187753336</v>
+        <v>0.9217332231852989</v>
       </c>
       <c r="Q3">
-        <v>1.026334352888667</v>
+        <v>5.692864129248</v>
       </c>
       <c r="R3">
-        <v>9.237009175997999</v>
+        <v>51.235777163232</v>
       </c>
       <c r="S3">
-        <v>0.01831743894209314</v>
+        <v>0.1614810861877774</v>
       </c>
       <c r="T3">
-        <v>0.01831743894209314</v>
+        <v>0.1614810861877773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.667667333333333</v>
+        <v>6.497702</v>
       </c>
       <c r="H4">
-        <v>11.003002</v>
+        <v>19.493106</v>
       </c>
       <c r="I4">
-        <v>0.1424137080579054</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="J4">
-        <v>0.1424137080579054</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.814419</v>
+        <v>0.09278333333333333</v>
       </c>
       <c r="N4">
-        <v>5.443257</v>
+        <v>0.27835</v>
       </c>
       <c r="O4">
-        <v>0.8339722784340017</v>
+        <v>0.07826677681470105</v>
       </c>
       <c r="P4">
-        <v>0.8339722784340018</v>
+        <v>0.07826677681470104</v>
       </c>
       <c r="Q4">
-        <v>6.654685295279332</v>
+        <v>0.6028784505666667</v>
       </c>
       <c r="R4">
-        <v>59.89216765751399</v>
+        <v>5.4259060551</v>
       </c>
       <c r="S4">
-        <v>0.1187690845892861</v>
+        <v>0.01710096444012085</v>
       </c>
       <c r="T4">
-        <v>0.1187690845892861</v>
+        <v>0.01710096444012084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="H5">
         <v>19.493106</v>
       </c>
       <c r="I5">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="J5">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08138266666666667</v>
+        <v>1.092692</v>
       </c>
       <c r="N5">
-        <v>0.244148</v>
+        <v>3.278076</v>
       </c>
       <c r="O5">
-        <v>0.03740640279066461</v>
+        <v>0.921733223185299</v>
       </c>
       <c r="P5">
-        <v>0.03740640279066461</v>
+        <v>0.9217332231852989</v>
       </c>
       <c r="Q5">
-        <v>0.5288003159653333</v>
+        <v>7.099986993784</v>
       </c>
       <c r="R5">
-        <v>4.759202843688</v>
+        <v>63.899882944056</v>
       </c>
       <c r="S5">
-        <v>0.009437730962616714</v>
+        <v>0.2013948665637276</v>
       </c>
       <c r="T5">
-        <v>0.009437730962616712</v>
+        <v>0.2013948665637276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.497701999999999</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="H6">
-        <v>19.493106</v>
+        <v>5.14397</v>
       </c>
       <c r="I6">
-        <v>0.2523025540689536</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="J6">
-        <v>0.2523025540689535</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.279833</v>
+        <v>0.09278333333333333</v>
       </c>
       <c r="N6">
-        <v>0.839499</v>
+        <v>0.27835</v>
       </c>
       <c r="O6">
-        <v>0.1286213187753336</v>
+        <v>0.07826677681470105</v>
       </c>
       <c r="P6">
-        <v>0.1286213187753336</v>
+        <v>0.07826677681470104</v>
       </c>
       <c r="Q6">
-        <v>1.818271443766</v>
+        <v>0.1590915610555556</v>
       </c>
       <c r="R6">
-        <v>16.364442993894</v>
+        <v>1.4318240495</v>
       </c>
       <c r="S6">
-        <v>0.03245148723473372</v>
+        <v>0.004512715831486702</v>
       </c>
       <c r="T6">
-        <v>0.03245148723473372</v>
+        <v>0.004512715831486701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.497701999999999</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="H7">
-        <v>19.493106</v>
+        <v>5.14397</v>
       </c>
       <c r="I7">
-        <v>0.2523025540689536</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="J7">
-        <v>0.2523025540689535</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.814419</v>
+        <v>1.092692</v>
       </c>
       <c r="N7">
-        <v>5.443257</v>
+        <v>3.278076</v>
       </c>
       <c r="O7">
-        <v>0.8339722784340017</v>
+        <v>0.921733223185299</v>
       </c>
       <c r="P7">
-        <v>0.8339722784340018</v>
+        <v>0.9217332231852989</v>
       </c>
       <c r="Q7">
-        <v>11.789553965138</v>
+        <v>1.873591622413333</v>
       </c>
       <c r="R7">
-        <v>106.105985686242</v>
+        <v>16.86232460172</v>
       </c>
       <c r="S7">
-        <v>0.2104133358716031</v>
+        <v>0.05314541211430431</v>
       </c>
       <c r="T7">
-        <v>0.2104133358716031</v>
+        <v>0.0531454121143043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.188929333333333</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="H8">
-        <v>3.566788</v>
+        <v>48.948094</v>
       </c>
       <c r="I8">
-        <v>0.04616553781744658</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="J8">
-        <v>0.04616553781744658</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.08138266666666667</v>
+        <v>0.09278333333333333</v>
       </c>
       <c r="N8">
-        <v>0.244148</v>
+        <v>0.27835</v>
       </c>
       <c r="O8">
-        <v>0.03740640279066461</v>
+        <v>0.07826677681470105</v>
       </c>
       <c r="P8">
-        <v>0.03740640279066461</v>
+        <v>0.07826677681470104</v>
       </c>
       <c r="Q8">
-        <v>0.09675823962488889</v>
+        <v>1.513855773877778</v>
       </c>
       <c r="R8">
-        <v>0.8708241566239999</v>
+        <v>13.6247019649</v>
       </c>
       <c r="S8">
-        <v>0.001726886702647066</v>
+        <v>0.04294131550434766</v>
       </c>
       <c r="T8">
-        <v>0.001726886702647066</v>
+        <v>0.04294131550434765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,294 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.188929333333333</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="H9">
-        <v>3.566788</v>
+        <v>48.948094</v>
       </c>
       <c r="I9">
-        <v>0.04616553781744658</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="J9">
-        <v>0.04616553781744658</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.279833</v>
+        <v>1.092692</v>
       </c>
       <c r="N9">
-        <v>0.839499</v>
+        <v>3.278076</v>
       </c>
       <c r="O9">
-        <v>0.1286213187753336</v>
+        <v>0.921733223185299</v>
       </c>
       <c r="P9">
-        <v>0.1286213187753336</v>
+        <v>0.9217332231852989</v>
       </c>
       <c r="Q9">
-        <v>0.3327016621346667</v>
+        <v>17.82839690968266</v>
       </c>
       <c r="R9">
-        <v>2.994314959212</v>
+        <v>160.455572187144</v>
       </c>
       <c r="S9">
-        <v>0.005937872356052514</v>
+        <v>0.5057118583194897</v>
       </c>
       <c r="T9">
-        <v>0.005937872356052515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.188929333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.566788</v>
-      </c>
-      <c r="I10">
-        <v>0.04616553781744658</v>
-      </c>
-      <c r="J10">
-        <v>0.04616553781744658</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.814419</v>
-      </c>
-      <c r="N10">
-        <v>5.443257</v>
-      </c>
-      <c r="O10">
-        <v>0.8339722784340017</v>
-      </c>
-      <c r="P10">
-        <v>0.8339722784340018</v>
-      </c>
-      <c r="Q10">
-        <v>2.157215972057333</v>
-      </c>
-      <c r="R10">
-        <v>19.414943748516</v>
-      </c>
-      <c r="S10">
-        <v>0.03850077875874699</v>
-      </c>
-      <c r="T10">
-        <v>0.038500778758747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>14.399313</v>
-      </c>
-      <c r="H11">
-        <v>43.19793900000001</v>
-      </c>
-      <c r="I11">
-        <v>0.5591182000556946</v>
-      </c>
-      <c r="J11">
-        <v>0.5591182000556946</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.08138266666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.244148</v>
-      </c>
-      <c r="O11">
-        <v>0.03740640279066461</v>
-      </c>
-      <c r="P11">
-        <v>0.03740640279066461</v>
-      </c>
-      <c r="Q11">
-        <v>1.171854490108</v>
-      </c>
-      <c r="R11">
-        <v>10.546690410972</v>
-      </c>
-      <c r="S11">
-        <v>0.02091460059887471</v>
-      </c>
-      <c r="T11">
-        <v>0.02091460059887471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>14.399313</v>
-      </c>
-      <c r="H12">
-        <v>43.19793900000001</v>
-      </c>
-      <c r="I12">
-        <v>0.5591182000556946</v>
-      </c>
-      <c r="J12">
-        <v>0.5591182000556946</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.279833</v>
-      </c>
-      <c r="N12">
-        <v>0.839499</v>
-      </c>
-      <c r="O12">
-        <v>0.1286213187753336</v>
-      </c>
-      <c r="P12">
-        <v>0.1286213187753336</v>
-      </c>
-      <c r="Q12">
-        <v>4.029402954729</v>
-      </c>
-      <c r="R12">
-        <v>36.264626592561</v>
-      </c>
-      <c r="S12">
-        <v>0.07191452024245423</v>
-      </c>
-      <c r="T12">
-        <v>0.07191452024245425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>14.399313</v>
-      </c>
-      <c r="H13">
-        <v>43.19793900000001</v>
-      </c>
-      <c r="I13">
-        <v>0.5591182000556946</v>
-      </c>
-      <c r="J13">
-        <v>0.5591182000556946</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.814419</v>
-      </c>
-      <c r="N13">
-        <v>5.443257</v>
-      </c>
-      <c r="O13">
-        <v>0.8339722784340017</v>
-      </c>
-      <c r="P13">
-        <v>0.8339722784340018</v>
-      </c>
-      <c r="Q13">
-        <v>26.126387094147</v>
-      </c>
-      <c r="R13">
-        <v>235.137483847323</v>
-      </c>
-      <c r="S13">
-        <v>0.4662890792143656</v>
-      </c>
-      <c r="T13">
-        <v>0.4662890792143656</v>
+        <v>0.5057118583194897</v>
       </c>
     </row>
   </sheetData>
